--- a/ValueSet-PDcategoryVS.xlsx
+++ b/ValueSet-PDcategoryVS.xlsx
@@ -53,7 +53,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-12T17:57:03+00:00</t>
+    <t>2022-12-16T11:59:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PDcategoryVS.xlsx
+++ b/ValueSet-PDcategoryVS.xlsx
@@ -53,7 +53,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-16T11:59:02+00:00</t>
+    <t>2022-12-19T11:15:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PDcategoryVS.xlsx
+++ b/ValueSet-PDcategoryVS.xlsx
@@ -53,7 +53,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-19T11:15:45+00:00</t>
+    <t>2022-12-19T11:40:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PDcategoryVS.xlsx
+++ b/ValueSet-PDcategoryVS.xlsx
@@ -53,7 +53,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-19T11:40:17+00:00</t>
+    <t>2022-12-19T12:04:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PDcategoryVS.xlsx
+++ b/ValueSet-PDcategoryVS.xlsx
@@ -53,7 +53,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-19T12:04:36+00:00</t>
+    <t>2022-12-19T12:18:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PDcategoryVS.xlsx
+++ b/ValueSet-PDcategoryVS.xlsx
@@ -53,7 +53,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-19T12:18:39+00:00</t>
+    <t>2022-12-19T12:29:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PDcategoryVS.xlsx
+++ b/ValueSet-PDcategoryVS.xlsx
@@ -53,7 +53,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-19T12:29:59+00:00</t>
+    <t>2022-12-19T12:45:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PDcategoryVS.xlsx
+++ b/ValueSet-PDcategoryVS.xlsx
@@ -53,7 +53,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-19T12:45:40+00:00</t>
+    <t>2022-12-19T13:05:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PDcategoryVS.xlsx
+++ b/ValueSet-PDcategoryVS.xlsx
@@ -53,7 +53,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-19T13:05:58+00:00</t>
+    <t>2022-12-19T13:47:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PDcategoryVS.xlsx
+++ b/ValueSet-PDcategoryVS.xlsx
@@ -53,7 +53,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-19T13:47:37+00:00</t>
+    <t>2022-12-19T13:53:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PDcategoryVS.xlsx
+++ b/ValueSet-PDcategoryVS.xlsx
@@ -53,7 +53,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-19T13:53:43+00:00</t>
+    <t>2022-12-19T15:00:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PDcategoryVS.xlsx
+++ b/ValueSet-PDcategoryVS.xlsx
@@ -53,7 +53,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-19T15:00:29+00:00</t>
+    <t>2022-12-21T15:23:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PDcategoryVS.xlsx
+++ b/ValueSet-PDcategoryVS.xlsx
@@ -53,7 +53,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-21T15:23:43+00:00</t>
+    <t>2022-12-21T16:14:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PDcategoryVS.xlsx
+++ b/ValueSet-PDcategoryVS.xlsx
@@ -53,7 +53,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-21T16:14:14+00:00</t>
+    <t>2022-12-22T14:28:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PDcategoryVS.xlsx
+++ b/ValueSet-PDcategoryVS.xlsx
@@ -53,7 +53,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-22T14:28:26+00:00</t>
+    <t>2023-01-09T16:27:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PDcategoryVS.xlsx
+++ b/ValueSet-PDcategoryVS.xlsx
@@ -53,7 +53,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-09T16:27:52+00:00</t>
+    <t>2023-01-09T16:42:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PDcategoryVS.xlsx
+++ b/ValueSet-PDcategoryVS.xlsx
@@ -53,7 +53,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-09T16:42:52+00:00</t>
+    <t>2023-01-09T16:59:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PDcategoryVS.xlsx
+++ b/ValueSet-PDcategoryVS.xlsx
@@ -53,7 +53,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-09T16:59:54+00:00</t>
+    <t>2023-01-09T17:13:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PDcategoryVS.xlsx
+++ b/ValueSet-PDcategoryVS.xlsx
@@ -53,7 +53,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-09T17:13:42+00:00</t>
+    <t>2023-01-10T12:40:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PDcategoryVS.xlsx
+++ b/ValueSet-PDcategoryVS.xlsx
@@ -53,7 +53,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-10T12:40:13+00:00</t>
+    <t>2023-01-13T18:37:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PDcategoryVS.xlsx
+++ b/ValueSet-PDcategoryVS.xlsx
@@ -53,7 +53,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-13T18:37:09+00:00</t>
+    <t>2023-01-14T16:17:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PDcategoryVS.xlsx
+++ b/ValueSet-PDcategoryVS.xlsx
@@ -53,7 +53,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-14T16:17:33+00:00</t>
+    <t>2023-01-14T22:54:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PDcategoryVS.xlsx
+++ b/ValueSet-PDcategoryVS.xlsx
@@ -53,7 +53,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-14T22:54:21+00:00</t>
+    <t>2023-01-20T16:43:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PDcategoryVS.xlsx
+++ b/ValueSet-PDcategoryVS.xlsx
@@ -53,7 +53,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-20T16:43:49+00:00</t>
+    <t>2023-01-21T15:39:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PDcategoryVS.xlsx
+++ b/ValueSet-PDcategoryVS.xlsx
@@ -53,7 +53,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-21T15:39:57+00:00</t>
+    <t>2023-01-23T12:20:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PDcategoryVS.xlsx
+++ b/ValueSet-PDcategoryVS.xlsx
@@ -53,7 +53,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-23T12:20:33+00:00</t>
+    <t>2023-01-23T12:28:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
